--- a/biology/Zoologie/Erebia_arctica/Erebia_arctica.xlsx
+++ b/biology/Zoologie/Erebia_arctica/Erebia_arctica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia arctica est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, originaire de Russie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d’Erebia arctica est un petit papillon marron avec une bande postdiscale cuivrée aux ailes antérieures et postérieures.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia arctica est originaire de la partie européenne de la Russie arctique[1], où elle réside dans les landes et prairies marécageuses et la toundra montagnarde jusqu'à 1 000 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia arctica est originaire de la partie européenne de la Russie arctique, où elle réside dans les landes et prairies marécageuses et la toundra montagnarde jusqu'à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est univoltine et les imagos volent en juin et juillet[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est univoltine et les imagos volent en juin et juillet.
 Les plantes hôtes des chenilles sont des graminées.
 </t>
         </is>
@@ -605,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Erebia arctica a été décrite par l'entomologiste finlandais Bertil Poppius (fi) en 1906. Un synonyme est Erebia boreomontanum Sedykh, 1979[1].
-Une sous-espèce a été décrite de l'Oural polaire : Erebia arctica flaveoides Korshunov &amp; Tatarinov, 1996[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Erebia arctica a été décrite par l'entomologiste finlandais Bertil Poppius (fi) en 1906. Un synonyme est Erebia boreomontanum Sedykh, 1979.
+Une sous-espèce a été décrite de l'Oural polaire : Erebia arctica flaveoides Korshunov &amp; Tatarinov, 1996.
 Certains auteurs considèrent arctica et flaveoides comme des sous-espèces d’Erebia euryale.
 </t>
         </is>
